--- a/Finalize logic tree/Ford_F-150_Misfire.xlsx
+++ b/Finalize logic tree/Ford_F-150_Misfire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990B4886-444B-4165-88F2-F3B71DEC6BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E47B8C9-580A-4636-A7DA-5C72F15C6C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{94B66DC5-0934-4316-9ACC-33E84264706F}"/>
   </bookViews>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDBB5A3-B61B-41DB-BE26-064B8BAC5F93}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,7 +614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
